--- a/flask-backend/2_Storage-201703.xlsx
+++ b/flask-backend/2_Storage-201703.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="127">
   <si>
     <t xml:space="preserve">SAN</t>
   </si>
@@ -464,14 +464,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -493,12 +492,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -546,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -568,15 +561,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -600,15 +586,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -617,7 +599,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -625,7 +607,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -649,60 +631,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="표준 6" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -774,21 +743,21 @@
   </sheetPr>
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9676113360324"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
@@ -976,12 +945,25 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F8" s="12" t="n">
+        <f aca="false">638000/1024</f>
+        <v>623.046875</v>
+      </c>
       <c r="G8" s="11" t="n">
         <f aca="false">$E$7*9/1024</f>
         <v>96.6796875</v>
@@ -995,12 +977,25 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <f aca="false">638000/1024</f>
+        <v>623.046875</v>
+      </c>
       <c r="G9" s="11" t="n">
         <f aca="false">$E$7*9/1024</f>
         <v>96.6796875</v>
@@ -1014,12 +1009,25 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <f aca="false">638000/1024</f>
+        <v>623.046875</v>
+      </c>
       <c r="G10" s="11" t="n">
         <f aca="false">$E$7*9/1024</f>
         <v>96.6796875</v>
@@ -1033,12 +1041,25 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F11" s="12" t="n">
+        <f aca="false">638000/1024</f>
+        <v>623.046875</v>
+      </c>
       <c r="G11" s="11" t="n">
         <f aca="false">$E$7*9/1024</f>
         <v>96.6796875</v>
@@ -1052,12 +1073,25 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F12" s="12" t="n">
+        <f aca="false">638000/1024</f>
+        <v>623.046875</v>
+      </c>
       <c r="G12" s="11" t="n">
         <f aca="false">$E$7*9/1024</f>
         <v>96.6796875</v>
@@ -1106,12 +1140,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F14" s="12" t="n">
+        <f aca="false">638000/1024</f>
+        <v>623.046875</v>
+      </c>
       <c r="G14" s="11" t="n">
         <f aca="false">$E$13*7/1024</f>
         <v>75.1953125</v>
@@ -1125,12 +1172,25 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F15" s="12" t="n">
+        <f aca="false">638000/1024</f>
+        <v>623.046875</v>
+      </c>
       <c r="G15" s="11" t="n">
         <f aca="false">$E$13*7/1024</f>
         <v>75.1953125</v>
@@ -1144,12 +1204,25 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F16" s="12" t="n">
+        <f aca="false">638000/1024</f>
+        <v>623.046875</v>
+      </c>
       <c r="G16" s="11" t="n">
         <f aca="false">$E$13*9/1024</f>
         <v>96.6796875</v>
@@ -1163,12 +1236,25 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F17" s="12" t="n">
+        <f aca="false">638000/1024</f>
+        <v>623.046875</v>
+      </c>
       <c r="G17" s="11" t="n">
         <f aca="false">$E$13*9/1024</f>
         <v>96.6796875</v>
@@ -1182,12 +1268,25 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <f aca="false">638000/1024</f>
+        <v>623.046875</v>
+      </c>
       <c r="G18" s="11" t="n">
         <f aca="false">$E$13*9/1024</f>
         <v>96.6796875</v>
@@ -1236,12 +1335,26 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F20" s="12" t="n">
+        <f aca="false">E20*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G20" s="11" t="n">
         <v>0.1</v>
       </c>
@@ -1254,12 +1367,26 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F21" s="12" t="n">
+        <f aca="false">E21*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G21" s="11" t="n">
         <v>10</v>
       </c>
@@ -1272,12 +1399,26 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F22" s="12" t="n">
+        <f aca="false">E22*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G22" s="11" t="n">
         <v>1</v>
       </c>
@@ -1290,12 +1431,26 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
+      <c r="A23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F23" s="12" t="n">
+        <f aca="false">E23*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G23" s="11" t="n">
         <v>5</v>
       </c>
@@ -1308,12 +1463,26 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F24" s="12" t="n">
+        <f aca="false">E24*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G24" s="11" t="n">
         <v>10</v>
       </c>
@@ -1326,12 +1495,26 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F25" s="12" t="n">
+        <f aca="false">E25*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G25" s="11" t="n">
         <v>10</v>
       </c>
@@ -1344,12 +1527,26 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F26" s="12" t="n">
+        <f aca="false">E26*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G26" s="11" t="n">
         <v>2</v>
       </c>
@@ -1362,12 +1559,26 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F27" s="12" t="n">
+        <f aca="false">E27*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G27" s="11" t="n">
         <v>10</v>
       </c>
@@ -1380,12 +1591,26 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
+      <c r="A28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F28" s="12" t="n">
+        <f aca="false">E28*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G28" s="11" t="n">
         <v>1</v>
       </c>
@@ -1398,12 +1623,26 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
+      <c r="A29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F29" s="12" t="n">
+        <f aca="false">E29*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G29" s="11" t="n">
         <v>50</v>
       </c>
@@ -1416,12 +1655,26 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
+      <c r="A30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <f aca="false">E30*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G30" s="11" t="n">
         <v>100</v>
       </c>
@@ -1434,12 +1687,26 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
+      <c r="A31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <f aca="false">E31*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G31" s="11" t="n">
         <v>1</v>
       </c>
@@ -1452,12 +1719,26 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
+      <c r="A32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F32" s="12" t="n">
+        <f aca="false">E32*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G32" s="11" t="n">
         <v>1</v>
       </c>
@@ -1470,12 +1751,26 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
+      <c r="A33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F33" s="12" t="n">
+        <f aca="false">E33*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G33" s="11" t="n">
         <v>1</v>
       </c>
@@ -1488,12 +1783,26 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F34" s="12" t="n">
+        <f aca="false">E34*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G34" s="11" t="n">
         <v>300</v>
       </c>
@@ -1506,12 +1815,26 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
+      <c r="A35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F35" s="12" t="n">
+        <f aca="false">E35*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G35" s="11" t="n">
         <v>1</v>
       </c>
@@ -1524,12 +1847,26 @@
       <c r="J35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
+      <c r="A36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F36" s="12" t="n">
+        <f aca="false">E36*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G36" s="11" t="n">
         <v>320</v>
       </c>
@@ -1542,12 +1879,26 @@
       <c r="J36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
+      <c r="A37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F37" s="12" t="n">
+        <f aca="false">E37*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G37" s="11" t="n">
         <v>200</v>
       </c>
@@ -1560,12 +1911,26 @@
       <c r="J37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
+      <c r="A38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <f aca="false">97.4*1024</f>
+        <v>99737.6</v>
+      </c>
+      <c r="F38" s="12" t="n">
+        <f aca="false">E38*15/1024</f>
+        <v>1461</v>
+      </c>
       <c r="G38" s="11" t="n">
         <v>130</v>
       </c>
@@ -1581,7 +1946,7 @@
       <c r="A39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -1601,7 +1966,7 @@
       <c r="G39" s="11" t="n">
         <v>3196</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I39" s="10" t="s">
@@ -1635,7 +2000,7 @@
         <f aca="false">$E$40*5/1024</f>
         <v>19.999951171875</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I40" s="10" t="s">
@@ -1647,17 +2012,29 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
+      <c r="A41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11" t="n">
+        <v>4095.99</v>
+      </c>
+      <c r="F41" s="12" t="n">
+        <v>150.98</v>
+      </c>
       <c r="G41" s="11" t="n">
         <f aca="false">$E$40*5/1024</f>
         <v>19.999951171875</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I41" s="10" t="s">
@@ -1666,17 +2043,29 @@
       <c r="J41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
+      <c r="A42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <v>4095.99</v>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>150.98</v>
+      </c>
       <c r="G42" s="11" t="n">
         <f aca="false">$E$40*1/1024</f>
         <v>3.999990234375</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I42" s="10" t="s">
@@ -1685,17 +2074,29 @@
       <c r="J42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
+      <c r="A43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11" t="n">
+        <v>4095.99</v>
+      </c>
+      <c r="F43" s="12" t="n">
+        <v>150.98</v>
+      </c>
       <c r="G43" s="11" t="n">
         <f aca="false">$E$40*1/1024</f>
         <v>3.999990234375</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I43" s="10" t="s">
@@ -1704,12 +2105,24 @@
       <c r="J43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
+      <c r="A44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>4095.99</v>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>150.98</v>
+      </c>
       <c r="G44" s="11" t="n">
         <f aca="false">$E$40*25/1024</f>
         <v>99.999755859375</v>
@@ -1757,12 +2170,24 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
+      <c r="A46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11" t="n">
+        <v>4095.99</v>
+      </c>
+      <c r="F46" s="12" t="n">
+        <v>352.6</v>
+      </c>
       <c r="G46" s="11" t="n">
         <f aca="false">$E$45*25/1024</f>
         <v>99.999755859375</v>
@@ -1776,12 +2201,24 @@
       <c r="J46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
+      <c r="A47" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11" t="n">
+        <v>4095.99</v>
+      </c>
+      <c r="F47" s="12" t="n">
+        <v>352.6</v>
+      </c>
       <c r="G47" s="11" t="n">
         <f aca="false">$E$45*25/1024</f>
         <v>99.999755859375</v>
@@ -1829,12 +2266,24 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
+      <c r="A49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11" t="n">
+        <v>4095.99</v>
+      </c>
+      <c r="F49" s="12" t="n">
+        <v>256.43</v>
+      </c>
       <c r="G49" s="11" t="n">
         <f aca="false">$E$48*25/1024</f>
         <v>99.999755859375</v>
@@ -1883,12 +2332,25 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11" t="n">
+        <v>2453.47</v>
+      </c>
+      <c r="F51" s="12" t="n">
+        <f aca="false">E51*4/1024</f>
+        <v>9.5838671875</v>
+      </c>
       <c r="G51" s="11" t="n">
         <f aca="false">$E$50*2/1024</f>
         <v>4.79193359375</v>
@@ -1925,7 +2387,7 @@
         <f aca="false">$E$52*4/1024</f>
         <v>25.16</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I52" s="10" t="s">
@@ -1937,17 +2399,30 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
+      <c r="A53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11" t="n">
+        <f aca="false">6.29*1024</f>
+        <v>6440.96</v>
+      </c>
+      <c r="F53" s="12" t="n">
+        <v>176.12</v>
+      </c>
       <c r="G53" s="11" t="n">
         <f aca="false">$E$52*4/1024</f>
         <v>25.16</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I53" s="10" t="s">
@@ -1956,17 +2431,30 @@
       <c r="J53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11" t="n">
+        <f aca="false">6.29*1024</f>
+        <v>6440.96</v>
+      </c>
+      <c r="F54" s="12" t="n">
+        <v>176.12</v>
+      </c>
       <c r="G54" s="11" t="n">
         <f aca="false">$E$52*4/1024</f>
         <v>25.16</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I54" s="10" t="s">
@@ -1975,17 +2463,30 @@
       <c r="J54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
+      <c r="A55" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11" t="n">
+        <f aca="false">6.29*1024</f>
+        <v>6440.96</v>
+      </c>
+      <c r="F55" s="12" t="n">
+        <v>176.12</v>
+      </c>
       <c r="G55" s="11" t="n">
         <f aca="false">$E$52*4/1024</f>
         <v>25.16</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I55" s="10" t="s">
@@ -1994,17 +2495,30 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11" t="n">
+        <f aca="false">6.29*1024</f>
+        <v>6440.96</v>
+      </c>
+      <c r="F56" s="12" t="n">
+        <v>176.12</v>
+      </c>
       <c r="G56" s="11" t="n">
         <f aca="false">$E$52*4/1024</f>
         <v>25.16</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I56" s="10" t="s">
@@ -2013,17 +2527,30 @@
       <c r="J56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11" t="n">
+        <f aca="false">6.29*1024</f>
+        <v>6440.96</v>
+      </c>
+      <c r="F57" s="12" t="n">
+        <v>176.12</v>
+      </c>
       <c r="G57" s="11" t="n">
         <f aca="false">$E$52*4/1024</f>
         <v>25.16</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I57" s="10" t="s">
@@ -2032,17 +2559,30 @@
       <c r="J57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11" t="n">
+        <f aca="false">6.29*1024</f>
+        <v>6440.96</v>
+      </c>
+      <c r="F58" s="12" t="n">
+        <v>176.12</v>
+      </c>
       <c r="G58" s="11" t="n">
         <f aca="false">$E$52*4/1024</f>
         <v>25.16</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I58" s="10" t="s">
@@ -2051,17 +2591,30 @@
       <c r="J58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11" t="n">
+        <f aca="false">6.29*1024</f>
+        <v>6440.96</v>
+      </c>
+      <c r="F59" s="12" t="n">
+        <v>176.12</v>
+      </c>
       <c r="G59" s="11" t="n">
         <f aca="false">$E$52*4/1024</f>
         <v>25.16</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I59" s="10" t="s">
@@ -2086,346 +2639,567 @@
         <f aca="false">21.37*1024</f>
         <v>21882.88</v>
       </c>
-      <c r="F60" s="17" t="n">
+      <c r="F60" s="16" t="n">
         <v>384.66</v>
       </c>
       <c r="G60" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J60" s="18" t="n">
+      <c r="J60" s="17" t="n">
         <f aca="false">F60-SUM(G60:G77)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="19"/>
+      <c r="A61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F61" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G61" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J61" s="18"/>
+      <c r="J61" s="17"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="19"/>
+      <c r="A62" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F62" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G62" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J62" s="18"/>
+      <c r="J62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="19"/>
+      <c r="A63" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F63" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G63" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J63" s="18"/>
+      <c r="J63" s="17"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="19"/>
+      <c r="A64" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F64" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G64" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J64" s="18"/>
+      <c r="J64" s="17"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="19"/>
+      <c r="A65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F65" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G65" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J65" s="18"/>
+      <c r="J65" s="17"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="19"/>
+      <c r="A66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F66" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G66" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J66" s="18"/>
+      <c r="J66" s="17"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="19"/>
+      <c r="A67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F67" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G67" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="18"/>
+      <c r="J67" s="17"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="19"/>
+      <c r="A68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F68" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G68" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J68" s="18"/>
+      <c r="J68" s="17"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="19"/>
+      <c r="A69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F69" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G69" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J69" s="18"/>
+      <c r="J69" s="17"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="19"/>
+      <c r="A70" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F70" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G70" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="J70" s="18"/>
+      <c r="J70" s="17"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="19"/>
+      <c r="A71" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F71" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G71" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J71" s="18"/>
+      <c r="J71" s="17"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="19"/>
+      <c r="A72" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F72" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G72" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J72" s="18"/>
+      <c r="J72" s="17"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="19"/>
+      <c r="A73" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F73" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G73" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J73" s="18"/>
+      <c r="J73" s="17"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="19"/>
+      <c r="A74" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F74" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G74" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H74" s="16" t="s">
+      <c r="H74" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J74" s="18"/>
+      <c r="J74" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="19"/>
+      <c r="A75" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F75" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G75" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H75" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J75" s="18"/>
+      <c r="J75" s="17"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="19"/>
+      <c r="A76" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F76" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G76" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J76" s="18"/>
+      <c r="J76" s="17"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="19"/>
+      <c r="A77" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="11" t="n">
+        <f aca="false">21.37*1024</f>
+        <v>21882.88</v>
+      </c>
+      <c r="F77" s="16" t="n">
+        <v>384.66</v>
+      </c>
       <c r="G77" s="11" t="n">
         <f aca="false">$E$60*1/1024</f>
         <v>21.37</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J77" s="18"/>
+      <c r="J77" s="17"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
@@ -2452,7 +3226,7 @@
         <f aca="false">$E$78*7/1024</f>
         <v>150.469753146172</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I78" s="10" t="s">
@@ -2464,17 +3238,31 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="12"/>
+      <c r="A79" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="11" t="n">
+        <f aca="false">23634749030400/1024/1024/1024</f>
+        <v>22011.5753173828</v>
+      </c>
+      <c r="F79" s="12" t="n">
+        <f aca="false">E79*70/1024</f>
+        <v>1504.69753146172</v>
+      </c>
       <c r="G79" s="11" t="n">
         <f aca="false">$E$78*7/1024</f>
         <v>150.469753146172</v>
       </c>
-      <c r="H79" s="16" t="s">
+      <c r="H79" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I79" s="10" t="s">
@@ -2483,17 +3271,31 @@
       <c r="J79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="12"/>
+      <c r="A80" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="11" t="n">
+        <f aca="false">23634749030400/1024/1024/1024</f>
+        <v>22011.5753173828</v>
+      </c>
+      <c r="F80" s="12" t="n">
+        <f aca="false">E80*70/1024</f>
+        <v>1504.69753146172</v>
+      </c>
       <c r="G80" s="11" t="n">
         <f aca="false">$E$78*7/1024</f>
         <v>150.469753146172</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I80" s="10" t="s">
@@ -2502,17 +3304,31 @@
       <c r="J80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="12"/>
+      <c r="A81" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="11" t="n">
+        <f aca="false">23634749030400/1024/1024/1024</f>
+        <v>22011.5753173828</v>
+      </c>
+      <c r="F81" s="12" t="n">
+        <f aca="false">E81*70/1024</f>
+        <v>1504.69753146172</v>
+      </c>
       <c r="G81" s="11" t="n">
         <f aca="false">$E$78*7/1024</f>
         <v>150.469753146172</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I81" s="10" t="s">
@@ -2521,17 +3337,31 @@
       <c r="J81" s="13"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="12"/>
+      <c r="A82" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="11" t="n">
+        <f aca="false">23634749030400/1024/1024/1024</f>
+        <v>22011.5753173828</v>
+      </c>
+      <c r="F82" s="12" t="n">
+        <f aca="false">E82*70/1024</f>
+        <v>1504.69753146172</v>
+      </c>
       <c r="G82" s="11" t="n">
         <f aca="false">$E$78*7/1024</f>
         <v>150.469753146172</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I82" s="10" t="s">
@@ -2540,17 +3370,31 @@
       <c r="J82" s="13"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="12"/>
+      <c r="A83" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="11" t="n">
+        <f aca="false">23634749030400/1024/1024/1024</f>
+        <v>22011.5753173828</v>
+      </c>
+      <c r="F83" s="12" t="n">
+        <f aca="false">E83*70/1024</f>
+        <v>1504.69753146172</v>
+      </c>
       <c r="G83" s="11" t="n">
         <f aca="false">$E$78*7/1024</f>
         <v>150.469753146172</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I83" s="10" t="s">
@@ -2559,17 +3403,31 @@
       <c r="J83" s="13"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="12"/>
+      <c r="A84" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11" t="n">
+        <f aca="false">23634749030400/1024/1024/1024</f>
+        <v>22011.5753173828</v>
+      </c>
+      <c r="F84" s="12" t="n">
+        <f aca="false">E84*70/1024</f>
+        <v>1504.69753146172</v>
+      </c>
       <c r="G84" s="11" t="n">
         <f aca="false">$E$78*7/1024</f>
         <v>150.469753146172</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I84" s="10" t="s">
@@ -2578,17 +3436,31 @@
       <c r="J84" s="13"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="12"/>
+      <c r="A85" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="11" t="n">
+        <f aca="false">23634749030400/1024/1024/1024</f>
+        <v>22011.5753173828</v>
+      </c>
+      <c r="F85" s="12" t="n">
+        <f aca="false">E85*70/1024</f>
+        <v>1504.69753146172</v>
+      </c>
       <c r="G85" s="11" t="n">
         <f aca="false">$E$78*7/1024</f>
         <v>150.469753146172</v>
       </c>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I85" s="10" t="s">
@@ -2597,17 +3469,31 @@
       <c r="J85" s="13"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="12"/>
+      <c r="A86" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="11" t="n">
+        <f aca="false">23634749030400/1024/1024/1024</f>
+        <v>22011.5753173828</v>
+      </c>
+      <c r="F86" s="12" t="n">
+        <f aca="false">E86*70/1024</f>
+        <v>1504.69753146172</v>
+      </c>
       <c r="G86" s="11" t="n">
         <f aca="false">$E$78*7/1024</f>
         <v>150.469753146172</v>
       </c>
-      <c r="H86" s="16" t="s">
+      <c r="H86" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I86" s="10" t="s">
@@ -2616,17 +3502,31 @@
       <c r="J86" s="13"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="12"/>
+      <c r="A87" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="11" t="n">
+        <f aca="false">23634749030400/1024/1024/1024</f>
+        <v>22011.5753173828</v>
+      </c>
+      <c r="F87" s="12" t="n">
+        <f aca="false">E87*70/1024</f>
+        <v>1504.69753146172</v>
+      </c>
       <c r="G87" s="11" t="n">
         <f aca="false">$E$78*7/1024</f>
         <v>150.469753146172</v>
       </c>
-      <c r="H87" s="16" t="s">
+      <c r="H87" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I87" s="10" t="s">
@@ -2670,12 +3570,26 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="12"/>
+      <c r="A89" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F89" s="12" t="n">
+        <f aca="false">E89*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G89" s="11" t="n">
         <v>0.15</v>
       </c>
@@ -2688,12 +3602,26 @@
       <c r="J89" s="13"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="12"/>
+      <c r="A90" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F90" s="12" t="n">
+        <f aca="false">E90*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G90" s="11" t="n">
         <v>0.06</v>
       </c>
@@ -2706,12 +3634,26 @@
       <c r="J90" s="13"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="12"/>
+      <c r="A91" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F91" s="12" t="n">
+        <f aca="false">E91*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G91" s="11" t="n">
         <v>0.25</v>
       </c>
@@ -2724,12 +3666,26 @@
       <c r="J91" s="13"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="12"/>
+      <c r="A92" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F92" s="12" t="n">
+        <f aca="false">E92*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G92" s="11" t="n">
         <v>0.1</v>
       </c>
@@ -2742,12 +3698,26 @@
       <c r="J92" s="13"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="12"/>
+      <c r="A93" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F93" s="12" t="n">
+        <f aca="false">E93*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G93" s="11" t="n">
         <v>0.5</v>
       </c>
@@ -2760,12 +3730,26 @@
       <c r="J93" s="13"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="12"/>
+      <c r="A94" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F94" s="12" t="n">
+        <f aca="false">E94*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G94" s="11" t="n">
         <v>0.03</v>
       </c>
@@ -2778,12 +3762,26 @@
       <c r="J94" s="13"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="12"/>
+      <c r="A95" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F95" s="12" t="n">
+        <f aca="false">E95*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G95" s="11" t="n">
         <v>0.05</v>
       </c>
@@ -2796,12 +3794,26 @@
       <c r="J95" s="13"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="12"/>
+      <c r="A96" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F96" s="12" t="n">
+        <f aca="false">E96*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G96" s="11" t="n">
         <v>0.01</v>
       </c>
@@ -2814,12 +3826,26 @@
       <c r="J96" s="13"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="12"/>
+      <c r="A97" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F97" s="12" t="n">
+        <f aca="false">E97*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G97" s="11" t="n">
         <v>5</v>
       </c>
@@ -2832,12 +3858,26 @@
       <c r="J97" s="13"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="12"/>
+      <c r="A98" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F98" s="12" t="n">
+        <f aca="false">E98*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G98" s="11" t="n">
         <v>20</v>
       </c>
@@ -2850,12 +3890,26 @@
       <c r="J98" s="13"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="12"/>
+      <c r="A99" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F99" s="12" t="n">
+        <f aca="false">E99*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G99" s="11" t="n">
         <v>29.98</v>
       </c>
@@ -2868,12 +3922,26 @@
       <c r="J99" s="13"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="12"/>
+      <c r="A100" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F100" s="12" t="n">
+        <f aca="false">E100*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G100" s="11" t="n">
         <v>4.5</v>
       </c>
@@ -2886,12 +3954,26 @@
       <c r="J100" s="13"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="12"/>
+      <c r="A101" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F101" s="12" t="n">
+        <f aca="false">E101*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G101" s="11" t="n">
         <v>0.2</v>
       </c>
@@ -2904,12 +3986,26 @@
       <c r="J101" s="13"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="12"/>
+      <c r="A102" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F102" s="12" t="n">
+        <f aca="false">E102*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G102" s="11" t="n">
         <v>3</v>
       </c>
@@ -2922,12 +4018,26 @@
       <c r="J102" s="13"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="12"/>
+      <c r="A103" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F103" s="12" t="n">
+        <f aca="false">E103*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G103" s="11" t="n">
         <v>0.1</v>
       </c>
@@ -2940,12 +4050,26 @@
       <c r="J103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="12"/>
+      <c r="A104" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F104" s="12" t="n">
+        <f aca="false">E104*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G104" s="11" t="n">
         <v>0.1</v>
       </c>
@@ -2958,12 +4082,26 @@
       <c r="J104" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="14"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="12"/>
+      <c r="A105" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F105" s="12" t="n">
+        <f aca="false">E105*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G105" s="11" t="n">
         <v>10</v>
       </c>
@@ -2976,12 +4114,26 @@
       <c r="J105" s="13"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="12"/>
+      <c r="A106" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F106" s="12" t="n">
+        <f aca="false">E106*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G106" s="11" t="n">
         <v>32</v>
       </c>
@@ -2994,12 +4146,26 @@
       <c r="J106" s="13"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="12"/>
+      <c r="A107" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F107" s="12" t="n">
+        <f aca="false">E107*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G107" s="11" t="n">
         <v>50</v>
       </c>
@@ -3012,12 +4178,26 @@
       <c r="J107" s="13"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="14"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="12"/>
+      <c r="A108" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F108" s="12" t="n">
+        <f aca="false">E108*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G108" s="11" t="n">
         <v>50</v>
       </c>
@@ -3030,12 +4210,26 @@
       <c r="J108" s="13"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="14"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="12"/>
+      <c r="A109" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F109" s="12" t="n">
+        <f aca="false">E109*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G109" s="11" t="n">
         <v>50</v>
       </c>
@@ -3048,12 +4242,26 @@
       <c r="J109" s="13"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="14"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="12"/>
+      <c r="A110" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F110" s="12" t="n">
+        <f aca="false">E110*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G110" s="11" t="n">
         <v>50</v>
       </c>
@@ -3066,12 +4274,26 @@
       <c r="J110" s="13"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="14"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="12"/>
+      <c r="A111" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F111" s="12" t="n">
+        <f aca="false">E111*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G111" s="11" t="n">
         <v>50</v>
       </c>
@@ -3084,12 +4306,26 @@
       <c r="J111" s="13"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="14"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="12"/>
+      <c r="A112" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F112" s="12" t="n">
+        <f aca="false">E112*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G112" s="11" t="n">
         <v>50</v>
       </c>
@@ -3102,12 +4338,26 @@
       <c r="J112" s="13"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="14"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="12"/>
+      <c r="A113" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F113" s="12" t="n">
+        <f aca="false">E113*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G113" s="11" t="n">
         <v>50</v>
       </c>
@@ -3120,12 +4370,26 @@
       <c r="J113" s="13"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="14"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="12"/>
+      <c r="A114" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="11" t="n">
+        <f aca="false">189*1024</f>
+        <v>193536</v>
+      </c>
+      <c r="F114" s="12" t="n">
+        <f aca="false">E114*16/1024</f>
+        <v>3024</v>
+      </c>
       <c r="G114" s="11" t="n">
         <v>50</v>
       </c>
